--- a/Test Instance Data Github.xlsx
+++ b/Test Instance Data Github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/222fae20fa5b6c4b/NYU/Research 01 - PDPT/TRPe Journal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{1D6C62F8-A0CC-4776-BABC-77422DCBC115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D71ADE35-A3EB-A740-9DC7-FEF61C122710}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{1D6C62F8-A0CC-4776-BABC-77422DCBC115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0902A8E0-26A8-A745-A418-7044D56A78E8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,7 +394,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -471,19 +471,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -658,19 +645,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -748,6 +735,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>40531</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>13510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>922506</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C9AE59-2419-DE4A-85D9-25EFC35D68C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11821808" y="1337553"/>
+          <a:ext cx="7772400" cy="5690727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1015,18 +1057,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC13D14E-22A9-EC4C-BB08-EBA977AD2388}">
   <dimension ref="C3:R193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11.83203125" style="5"/>
-    <col min="3" max="3" width="15.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21" style="5" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
@@ -1053,10 +1095,10 @@
       <c r="E4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="34" t="s">
         <v>46</v>
       </c>
       <c r="O4" s="1"/>
@@ -1068,7 +1110,7 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -1089,7 +1131,7 @@
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C6" s="7"/>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="13" t="s">
@@ -1110,7 +1152,7 @@
     </row>
     <row r="7" spans="3:18" ht="21" x14ac:dyDescent="0.2">
       <c r="C7" s="7"/>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -1131,7 +1173,7 @@
     </row>
     <row r="8" spans="3:18" ht="21" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="31" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -1152,7 +1194,7 @@
     </row>
     <row r="9" spans="3:18" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -1175,7 +1217,7 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1196,7 +1238,7 @@
     </row>
     <row r="11" spans="3:18" ht="21" x14ac:dyDescent="0.2">
       <c r="C11" s="7"/>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1217,7 +1259,7 @@
     </row>
     <row r="12" spans="3:18" ht="21" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1237,7 +1279,7 @@
       <c r="M12" s="18"/>
     </row>
     <row r="13" spans="3:18" ht="21" x14ac:dyDescent="0.2">
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1257,7 +1299,7 @@
       <c r="M13" s="18"/>
     </row>
     <row r="14" spans="3:18" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="31" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1280,7 +1322,7 @@
       <c r="C15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -1300,7 +1342,7 @@
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="3:18" ht="21" x14ac:dyDescent="0.2">
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="31" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="12" t="s">
@@ -1320,7 +1362,7 @@
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="3:13" ht="21" x14ac:dyDescent="0.2">
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1340,7 +1382,7 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="3:13" ht="21" x14ac:dyDescent="0.2">
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="31" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1360,7 +1402,7 @@
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="3:13" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1383,7 +1425,7 @@
       <c r="C20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="31" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -1403,7 +1445,7 @@
       <c r="M20" s="18"/>
     </row>
     <row r="21" spans="3:13" ht="21" x14ac:dyDescent="0.2">
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="31" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -1423,7 +1465,7 @@
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="3:13" ht="21" x14ac:dyDescent="0.2">
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="31" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -1443,7 +1485,7 @@
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="3:13" ht="21" x14ac:dyDescent="0.2">
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="31" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -1463,7 +1505,7 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="3:13" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="32" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -3360,5 +3402,6 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>